--- a/Planilha Teste Exemplo Projetos 2024 (edição).xlsx
+++ b/Planilha Teste Exemplo Projetos 2024 (edição).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FCEE0C-0190-4A4A-A242-47E379872356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A3C6F8-5D1E-4830-B5CE-0EDD6854F662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="18000" windowHeight="9360" tabRatio="788" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="788" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projetos - Índice" sheetId="29" r:id="rId1"/>
@@ -1801,7 +1801,7 @@
     <numFmt numFmtId="173" formatCode="mmm\,\ dd"/>
     <numFmt numFmtId="174" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="175" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="178" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="176" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="86" x14ac:knownFonts="1">
     <font>
@@ -3825,7 +3825,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="332">
+  <cellXfs count="334">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -4438,6 +4438,12 @@
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="83" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4687,15 +4693,15 @@
     <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="38" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="83" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="30" fillId="0" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="30" fillId="0" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="82" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="28">
     <cellStyle name="40% - Ênfase1" xfId="1" builtinId="31" customBuiltin="1"/>
@@ -4727,143 +4733,7 @@
     <cellStyle name="Título 4" xfId="11" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Vírgula" xfId="6" builtinId="3" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="53">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="175" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="32">
     <dxf>
       <font>
         <color theme="2" tint="-0.499984740745262"/>
@@ -4985,6 +4855,48 @@
       </font>
     </dxf>
     <dxf>
+      <numFmt numFmtId="175" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
@@ -5013,110 +4925,6 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5203,88 +5011,249 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1964531</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="Projeto">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A5923E9-FEF7-364E-26BE-688CB63462FD}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Projeto"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="11839575" y="304800"/>
-              <a:ext cx="2247900" cy="1085850"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="pt-BR" sz="1100"/>
-                <a:t>Esta forma representa um slicer da tabela. As segmentações de dados da tabela não são suportadas nesta versão do Excel.
-Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho foi salva no Excel 2007 ou anterior, a segmentação de dados não pode ser usada.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B85E5F4-FB07-E688-D156-4E6921E2A6D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23812" y="3393281"/>
+          <a:ext cx="4310063" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400"/>
+            <a:t>Aba “Projetos” -- Nível (Fácil)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400"/>
+            <a:t> 1.⁠ ⁠Linkar título dos projetos com aba do projeto</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400"/>
+            <a:t> 2.⁠ ⁠Linkar orçamento do projeto com aba do orçamento do projeto (linkar pelo valor total)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1143000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Buildings and a tree on a Summer" title="Header Summer">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="hqprint">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="114300"/>
+          <a:ext cx="4152900" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1143000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Buildings and a tree on a Summer" title="Header Summer">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="hqprint">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5448300" y="114300"/>
+          <a:ext cx="4152900" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1143000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Buildings and a tree on a Summer" title="Header Summer">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="hqprint">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="114300"/>
+          <a:ext cx="4152900" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5338,7 +5307,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5392,7 +5361,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5446,7 +5415,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5502,6 +5471,513 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>81641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>557893</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>340178</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B092528B-4467-49EC-B52A-A0822E751625}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14028965" y="6844391"/>
+          <a:ext cx="6136821" cy="3932466"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400"/>
+            <a:t>Aba “Título Projeto”2.⁠ ⁠Linkar valor do projeto com aba do orçamento do projeto (linkar pelo valor total - assim se alterar o orçamento nos resumos também alterará) -- (Tranquilo)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400"/>
+            <a:t> 1.⁠ ⁠Linkar na aba do calendário mensal as seguintes datas:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400"/>
+            <a:t>* Desenvolvimento do projeto - data (início e término inscrição) com lab</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400"/>
+            <a:t>* Modelo de Negócios - Previsão de filmagem</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400"/>
+            <a:t>* Status - prazos com tarefa (se possível diferenciar responsável - legenda de cores)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400"/>
+            <a:t>* Circuitos de festivais - início e término inscrição (período contínuo demarcado) com festival</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400"/>
+            <a:t>* Eventos de Mercado - início vendas com evento</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400"/>
+            <a:t>* Incluir data previsão estreia com nome do projeto (aba)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400"/>
+            <a:t>* Comercialização - término da licença com nome do projeto e player</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400"/>
+            <a:t>* Aprovações - data de realização com nome evento</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400"/>
+            <a:t>* Pitchings - data com nome do player e projeto  </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1866902</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>111579</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>54430</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Retângulo 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E733F5FA-856D-497E-AF2D-4226F5E16752}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10003973" y="15297150"/>
+          <a:ext cx="6136821" cy="827316"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400"/>
+            <a:t>2.⁠ ⁠Linkar valor do projeto com aba do orçamento do projeto (linkar pelo valor total - assim se alterar o orçamento nos resumos também alterará) -- (Tranquilo)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>306456</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>24848</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>66260</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>124241</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B49A1D9E-972B-A6E6-B4DC-1F5829785439}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10593456" y="1929848"/>
+          <a:ext cx="2940326" cy="1424610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Aba “Orçamento - Projeto”</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>2. Fórmula de matemática básica somando as colunas de “Executado” e “CAP” e subtraindo o total da coluna “Sub-total” de cada linha. O resultado vai pra coluna “Under/Over”.  (Tranquilo)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>149086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>140804</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Retângulo 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C05E7711-8BCD-3DFE-D1F6-7AB01CDC74C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4480891" y="33403760"/>
+          <a:ext cx="3486979" cy="654327"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>1. Linkar abaixo da linha “Custos Extras” o total dos valores na aba “Preju ou Investimento” com referência ao projeto (Tranquilo)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Projeto">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A5923E9-FEF7-364E-26BE-688CB63462FD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Projeto"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11925300" y="333374"/>
+              <a:ext cx="2247900" cy="1228725"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa um slicer da tabela. As segmentações de dados da tabela não são suportadas nesta versão do Excel.
+Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho foi salva no Excel 2007 ou anterior, a segmentação de dados não pode ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1047751</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Retângulo 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A9F172E-318D-44A7-A27B-13B5D13903C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4495801" y="2809876"/>
+          <a:ext cx="3295650" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Aba “Preju ou Investimento”</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>1. Criar filtro em todas as colunas (Tranquilo)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -5554,7 +6030,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5608,7 +6084,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5662,7 +6138,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5716,7 +6192,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5770,168 +6246,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1143000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Buildings and a tree on a Summer" title="Header Summer">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="hqprint">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5486400" y="114300"/>
-          <a:ext cx="4152900" cy="1143000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1143000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Buildings and a tree on a Summer" title="Header Summer">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="hqprint">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5448300" y="114300"/>
-          <a:ext cx="4152900" cy="1143000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1143000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Buildings and a tree on a Summer" title="Header Summer">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="hqprint">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5486400" y="114300"/>
-          <a:ext cx="4152900" cy="1143000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Projeto" xr10:uid="{2D526791-A6BF-45DD-B6AB-47F40269EFDF}" sourceName="Projeto">
   <extLst>
@@ -5949,12 +6263,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{37BF64DF-14FA-4BB3-B1AD-8C884F039DCD}" name="Tabela1" displayName="Tabela1" ref="A2:F15" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{37BF64DF-14FA-4BB3-B1AD-8C884F039DCD}" name="Tabela1" displayName="Tabela1" ref="A2:F15" totalsRowShown="0" headerRowDxfId="25">
   <autoFilter ref="A2:F15" xr:uid="{37BF64DF-14FA-4BB3-B1AD-8C884F039DCD}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{82820313-4FF4-4D28-872B-813517C5E9B3}" name="Item"/>
     <tableColumn id="2" xr3:uid="{C1A4F74C-80F0-4535-8F5E-2967C8C361CE}" name="Responsável"/>
-    <tableColumn id="3" xr3:uid="{9E01F44E-469E-4B27-87D0-EE8D185CA697}" name="Valor" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{9E01F44E-469E-4B27-87D0-EE8D185CA697}" name="Valor" dataDxfId="24"/>
     <tableColumn id="4" xr3:uid="{1162147B-1A2C-41EE-8968-C954ECC787AE}" name="Justificativa"/>
     <tableColumn id="5" xr3:uid="{188AA88E-4C5D-4389-9BD0-C96C42183993}" name="Projeto"/>
     <tableColumn id="6" xr3:uid="{E04E7832-DC27-42D0-A934-A2E6A3D464E7}" name="Observação"/>
@@ -6169,7 +6483,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.44140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6193,16 +6507,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="242" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="242"/>
       <c r="I1" s="28"/>
       <c r="J1" s="28"/>
       <c r="K1" s="28"/>
@@ -6254,7 +6568,10 @@
       <c r="E3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="27"/>
+      <c r="F3" s="332">
+        <f>'Orçamento - Dique'!I200</f>
+        <v>273582.65000000002</v>
+      </c>
       <c r="G3" s="27" t="s">
         <v>14</v>
       </c>
@@ -6275,7 +6592,7 @@
       <c r="E4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="27"/>
+      <c r="F4" s="331"/>
       <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -6294,7 +6611,7 @@
       <c r="E5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="27"/>
+      <c r="F5" s="331"/>
       <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -6335,6 +6652,7 @@
     <hyperlink ref="A3" location="EXEMPLO!A1" tooltip="Clique aqui" display="Dique" xr:uid="{30E39CEA-8BB8-3B4A-BA44-1B2679235384}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6363,12 +6681,12 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="318" t="str">
+      <c r="B2" s="322" t="str">
         <f>"April "&amp;CalendarYear</f>
         <v>April 2024</v>
       </c>
-      <c r="C2" s="318"/>
-      <c r="D2" s="318"/>
+      <c r="C2" s="322"/>
+      <c r="D2" s="322"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -6554,22 +6872,22 @@
       <c r="C14" s="15">
         <v>45419</v>
       </c>
-      <c r="D14" s="319" t="s">
+      <c r="D14" s="323" t="s">
         <v>495</v>
       </c>
-      <c r="E14" s="319"/>
-      <c r="F14" s="319"/>
-      <c r="G14" s="319"/>
-      <c r="H14" s="319"/>
+      <c r="E14" s="323"/>
+      <c r="F14" s="323"/>
+      <c r="G14" s="323"/>
+      <c r="H14" s="323"/>
     </row>
     <row r="15" spans="1:9" s="5" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
-      <c r="D15" s="320"/>
-      <c r="E15" s="320"/>
-      <c r="F15" s="320"/>
-      <c r="G15" s="320"/>
-      <c r="H15" s="320"/>
+      <c r="D15" s="324"/>
+      <c r="E15" s="324"/>
+      <c r="F15" s="324"/>
+      <c r="G15" s="324"/>
+      <c r="H15" s="324"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6578,12 +6896,12 @@
     <mergeCell ref="D15:H15"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:G4">
-    <cfRule type="expression" dxfId="31" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>DAY(B4)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:H12 B14:C14">
-    <cfRule type="expression" dxfId="30" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>AND(DAY(B12)&gt;=1,DAY(B12)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6630,12 +6948,12 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="318" t="str">
+      <c r="B2" s="322" t="str">
         <f>"May "&amp;CalendarYear</f>
         <v>May 2024</v>
       </c>
-      <c r="C2" s="318"/>
-      <c r="D2" s="318"/>
+      <c r="C2" s="322"/>
+      <c r="D2" s="322"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -6821,22 +7139,22 @@
       <c r="C14" s="15">
         <v>45447</v>
       </c>
-      <c r="D14" s="319" t="s">
+      <c r="D14" s="323" t="s">
         <v>495</v>
       </c>
-      <c r="E14" s="319"/>
-      <c r="F14" s="319"/>
-      <c r="G14" s="319"/>
-      <c r="H14" s="319"/>
+      <c r="E14" s="323"/>
+      <c r="F14" s="323"/>
+      <c r="G14" s="323"/>
+      <c r="H14" s="323"/>
     </row>
     <row r="15" spans="1:9" s="5" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
-      <c r="D15" s="320"/>
-      <c r="E15" s="320"/>
-      <c r="F15" s="320"/>
-      <c r="G15" s="320"/>
-      <c r="H15" s="320"/>
+      <c r="D15" s="324"/>
+      <c r="E15" s="324"/>
+      <c r="F15" s="324"/>
+      <c r="G15" s="324"/>
+      <c r="H15" s="324"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6845,12 +7163,12 @@
     <mergeCell ref="D15:H15"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:G4">
-    <cfRule type="expression" dxfId="29" priority="1">
+    <cfRule type="expression" dxfId="15" priority="1">
       <formula>DAY(B4)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:H12 B14:C14">
-    <cfRule type="expression" dxfId="28" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>AND(DAY(B12)&gt;=1,DAY(B12)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6897,12 +7215,12 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="321" t="str">
+      <c r="B2" s="325" t="str">
         <f>"June "&amp;CalendarYear</f>
         <v>June 2024</v>
       </c>
-      <c r="C2" s="321"/>
-      <c r="D2" s="321"/>
+      <c r="C2" s="325"/>
+      <c r="D2" s="325"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -7088,22 +7406,22 @@
       <c r="C14" s="19">
         <v>45475</v>
       </c>
-      <c r="D14" s="322" t="s">
+      <c r="D14" s="326" t="s">
         <v>495</v>
       </c>
-      <c r="E14" s="322"/>
-      <c r="F14" s="322"/>
-      <c r="G14" s="322"/>
-      <c r="H14" s="322"/>
+      <c r="E14" s="326"/>
+      <c r="F14" s="326"/>
+      <c r="G14" s="326"/>
+      <c r="H14" s="326"/>
     </row>
     <row r="15" spans="1:9" s="5" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
-      <c r="D15" s="323"/>
-      <c r="E15" s="323"/>
-      <c r="F15" s="323"/>
-      <c r="G15" s="323"/>
-      <c r="H15" s="323"/>
+      <c r="D15" s="327"/>
+      <c r="E15" s="327"/>
+      <c r="F15" s="327"/>
+      <c r="G15" s="327"/>
+      <c r="H15" s="327"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7112,12 +7430,12 @@
     <mergeCell ref="D15:H15"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:G4">
-    <cfRule type="expression" dxfId="27" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>DAY(B4)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:H12 B14:C14">
-    <cfRule type="expression" dxfId="26" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>AND(DAY(B12)&gt;=1,DAY(B12)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7164,12 +7482,12 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="321" t="str">
+      <c r="B2" s="325" t="str">
         <f>"July "&amp;CalendarYear</f>
         <v>July 2024</v>
       </c>
-      <c r="C2" s="321"/>
-      <c r="D2" s="321"/>
+      <c r="C2" s="325"/>
+      <c r="D2" s="325"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -7355,22 +7673,22 @@
       <c r="C14" s="19">
         <v>45510</v>
       </c>
-      <c r="D14" s="322" t="s">
+      <c r="D14" s="326" t="s">
         <v>495</v>
       </c>
-      <c r="E14" s="322"/>
-      <c r="F14" s="322"/>
-      <c r="G14" s="322"/>
-      <c r="H14" s="322"/>
+      <c r="E14" s="326"/>
+      <c r="F14" s="326"/>
+      <c r="G14" s="326"/>
+      <c r="H14" s="326"/>
     </row>
     <row r="15" spans="1:9" s="5" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
-      <c r="D15" s="323"/>
-      <c r="E15" s="323"/>
-      <c r="F15" s="323"/>
-      <c r="G15" s="323"/>
-      <c r="H15" s="323"/>
+      <c r="D15" s="327"/>
+      <c r="E15" s="327"/>
+      <c r="F15" s="327"/>
+      <c r="G15" s="327"/>
+      <c r="H15" s="327"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7379,12 +7697,12 @@
     <mergeCell ref="D15:H15"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:G4">
-    <cfRule type="expression" dxfId="25" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>DAY(B4)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:H12 B14:C14">
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>AND(DAY(B12)&gt;=1,DAY(B12)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7431,12 +7749,12 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="321" t="str">
+      <c r="B2" s="325" t="str">
         <f>"August "&amp;CalendarYear</f>
         <v>August 2024</v>
       </c>
-      <c r="C2" s="321"/>
-      <c r="D2" s="321"/>
+      <c r="C2" s="325"/>
+      <c r="D2" s="325"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -7622,22 +7940,22 @@
       <c r="C14" s="19">
         <v>45538</v>
       </c>
-      <c r="D14" s="322" t="s">
+      <c r="D14" s="326" t="s">
         <v>495</v>
       </c>
-      <c r="E14" s="322"/>
-      <c r="F14" s="322"/>
-      <c r="G14" s="322"/>
-      <c r="H14" s="322"/>
+      <c r="E14" s="326"/>
+      <c r="F14" s="326"/>
+      <c r="G14" s="326"/>
+      <c r="H14" s="326"/>
     </row>
     <row r="15" spans="1:9" s="5" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
-      <c r="D15" s="323"/>
-      <c r="E15" s="323"/>
-      <c r="F15" s="323"/>
-      <c r="G15" s="323"/>
-      <c r="H15" s="323"/>
+      <c r="D15" s="327"/>
+      <c r="E15" s="327"/>
+      <c r="F15" s="327"/>
+      <c r="G15" s="327"/>
+      <c r="H15" s="327"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7646,12 +7964,12 @@
     <mergeCell ref="D15:H15"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:G4">
-    <cfRule type="expression" dxfId="23" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>DAY(B4)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:H12 B14:C14">
-    <cfRule type="expression" dxfId="22" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>AND(DAY(B12)&gt;=1,DAY(B12)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7698,12 +8016,12 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="324" t="str">
+      <c r="B2" s="328" t="str">
         <f>"September "&amp;CalendarYear</f>
         <v>September 2024</v>
       </c>
-      <c r="C2" s="324"/>
-      <c r="D2" s="324"/>
+      <c r="C2" s="328"/>
+      <c r="D2" s="328"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -7889,22 +8207,22 @@
       <c r="C14" s="17">
         <v>45566</v>
       </c>
-      <c r="D14" s="325" t="s">
+      <c r="D14" s="329" t="s">
         <v>495</v>
       </c>
-      <c r="E14" s="325"/>
-      <c r="F14" s="325"/>
-      <c r="G14" s="325"/>
-      <c r="H14" s="325"/>
+      <c r="E14" s="329"/>
+      <c r="F14" s="329"/>
+      <c r="G14" s="329"/>
+      <c r="H14" s="329"/>
     </row>
     <row r="15" spans="1:9" s="5" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
-      <c r="D15" s="326"/>
-      <c r="E15" s="326"/>
-      <c r="F15" s="326"/>
-      <c r="G15" s="326"/>
-      <c r="H15" s="326"/>
+      <c r="D15" s="330"/>
+      <c r="E15" s="330"/>
+      <c r="F15" s="330"/>
+      <c r="G15" s="330"/>
+      <c r="H15" s="330"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7913,12 +8231,12 @@
     <mergeCell ref="D15:H15"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:G4">
-    <cfRule type="expression" dxfId="21" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>DAY(B4)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:H12 B14:C14">
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>AND(DAY(B12)&gt;=1,DAY(B12)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7965,12 +8283,12 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="324" t="str">
+      <c r="B2" s="328" t="str">
         <f>"October "&amp;CalendarYear</f>
         <v>October 2024</v>
       </c>
-      <c r="C2" s="324"/>
-      <c r="D2" s="324"/>
+      <c r="C2" s="328"/>
+      <c r="D2" s="328"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -8156,22 +8474,22 @@
       <c r="C14" s="17">
         <v>45601</v>
       </c>
-      <c r="D14" s="325" t="s">
+      <c r="D14" s="329" t="s">
         <v>495</v>
       </c>
-      <c r="E14" s="325"/>
-      <c r="F14" s="325"/>
-      <c r="G14" s="325"/>
-      <c r="H14" s="325"/>
+      <c r="E14" s="329"/>
+      <c r="F14" s="329"/>
+      <c r="G14" s="329"/>
+      <c r="H14" s="329"/>
     </row>
     <row r="15" spans="1:9" s="5" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
-      <c r="D15" s="326"/>
-      <c r="E15" s="326"/>
-      <c r="F15" s="326"/>
-      <c r="G15" s="326"/>
-      <c r="H15" s="326"/>
+      <c r="D15" s="330"/>
+      <c r="E15" s="330"/>
+      <c r="F15" s="330"/>
+      <c r="G15" s="330"/>
+      <c r="H15" s="330"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8180,12 +8498,12 @@
     <mergeCell ref="D15:H15"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:G4">
-    <cfRule type="expression" dxfId="19" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>DAY(B4)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:H12 B14:C14">
-    <cfRule type="expression" dxfId="18" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>AND(DAY(B12)&gt;=1,DAY(B12)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8232,12 +8550,12 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="324" t="str">
+      <c r="B2" s="328" t="str">
         <f>"November "&amp;CalendarYear</f>
         <v>November 2024</v>
       </c>
-      <c r="C2" s="324"/>
-      <c r="D2" s="324"/>
+      <c r="C2" s="328"/>
+      <c r="D2" s="328"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -8423,22 +8741,22 @@
       <c r="C14" s="17">
         <v>45629</v>
       </c>
-      <c r="D14" s="325" t="s">
+      <c r="D14" s="329" t="s">
         <v>495</v>
       </c>
-      <c r="E14" s="325"/>
-      <c r="F14" s="325"/>
-      <c r="G14" s="325"/>
-      <c r="H14" s="325"/>
+      <c r="E14" s="329"/>
+      <c r="F14" s="329"/>
+      <c r="G14" s="329"/>
+      <c r="H14" s="329"/>
     </row>
     <row r="15" spans="1:9" s="5" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
-      <c r="D15" s="326"/>
-      <c r="E15" s="326"/>
-      <c r="F15" s="326"/>
-      <c r="G15" s="326"/>
-      <c r="H15" s="326"/>
+      <c r="D15" s="330"/>
+      <c r="E15" s="330"/>
+      <c r="F15" s="330"/>
+      <c r="G15" s="330"/>
+      <c r="H15" s="330"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8447,12 +8765,12 @@
     <mergeCell ref="D15:H15"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:G4">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>DAY(B4)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:H12 B14:C14">
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>AND(DAY(B12)&gt;=1,DAY(B12)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8498,12 +8816,12 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="314" t="str">
+      <c r="B2" s="318" t="str">
         <f>"December "&amp;CalendarYear</f>
         <v>December 2024</v>
       </c>
-      <c r="C2" s="314"/>
-      <c r="D2" s="314"/>
+      <c r="C2" s="318"/>
+      <c r="D2" s="318"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -8689,22 +9007,22 @@
       <c r="C14" s="7">
         <v>45657</v>
       </c>
-      <c r="D14" s="315" t="s">
+      <c r="D14" s="319" t="s">
         <v>495</v>
       </c>
-      <c r="E14" s="315"/>
-      <c r="F14" s="315"/>
-      <c r="G14" s="315"/>
-      <c r="H14" s="315"/>
+      <c r="E14" s="319"/>
+      <c r="F14" s="319"/>
+      <c r="G14" s="319"/>
+      <c r="H14" s="319"/>
     </row>
     <row r="15" spans="1:9" s="5" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="316"/>
-      <c r="E15" s="316"/>
-      <c r="F15" s="316"/>
-      <c r="G15" s="316"/>
-      <c r="H15" s="316"/>
+      <c r="D15" s="320"/>
+      <c r="E15" s="320"/>
+      <c r="F15" s="320"/>
+      <c r="G15" s="320"/>
+      <c r="H15" s="320"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8713,12 +9031,12 @@
     <mergeCell ref="D15:H15"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:G4">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>DAY(B4)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:H12 B14:C14">
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>AND(DAY(B12)&gt;=1,DAY(B12)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8764,36 +9082,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="242" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="238"/>
-      <c r="K1" s="238"/>
-      <c r="L1" s="238"/>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="242"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
     </row>
     <row r="2" spans="1:12" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="238" t="s">
+      <c r="A2" s="242" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="238"/>
-      <c r="C2" s="238"/>
-      <c r="D2" s="238"/>
-      <c r="E2" s="238"/>
-      <c r="F2" s="238"/>
-      <c r="G2" s="238"/>
-      <c r="H2" s="238"/>
-      <c r="I2" s="238"/>
-      <c r="J2" s="238"/>
-      <c r="K2" s="238"/>
-      <c r="L2" s="238"/>
+      <c r="B2" s="242"/>
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
+      <c r="H2" s="242"/>
+      <c r="I2" s="242"/>
+      <c r="J2" s="242"/>
+      <c r="K2" s="242"/>
+      <c r="L2" s="242"/>
     </row>
     <row r="3" spans="1:12" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
@@ -8834,22 +9152,22 @@
       </c>
     </row>
     <row r="4" spans="1:12" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="239" t="s">
+      <c r="A4" s="243" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="239" t="s">
+      <c r="B4" s="243" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="239" t="s">
+      <c r="C4" s="243" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="198">
         <v>45413</v>
       </c>
-      <c r="E4" s="240" t="s">
+      <c r="E4" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="240">
+      <c r="F4" s="244">
         <v>45443</v>
       </c>
       <c r="G4" s="25" t="s">
@@ -8864,11 +9182,11 @@
       <c r="L4" s="29"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="239"/>
-      <c r="B5" s="239"/>
-      <c r="C5" s="239"/>
-      <c r="E5" s="240"/>
-      <c r="F5" s="240"/>
+      <c r="A5" s="243"/>
+      <c r="B5" s="243"/>
+      <c r="C5" s="243"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
       <c r="G5" s="25" t="s">
         <v>15</v>
       </c>
@@ -8952,20 +9270,20 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="238" t="s">
+      <c r="A10" s="242" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="238"/>
-      <c r="C10" s="238"/>
-      <c r="D10" s="238"/>
-      <c r="E10" s="238"/>
-      <c r="F10" s="238"/>
-      <c r="G10" s="238"/>
-      <c r="H10" s="238"/>
-      <c r="I10" s="238"/>
-      <c r="J10" s="238"/>
-      <c r="K10" s="238"/>
-      <c r="L10" s="238"/>
+      <c r="B10" s="242"/>
+      <c r="C10" s="242"/>
+      <c r="D10" s="242"/>
+      <c r="E10" s="242"/>
+      <c r="F10" s="242"/>
+      <c r="G10" s="242"/>
+      <c r="H10" s="242"/>
+      <c r="I10" s="242"/>
+      <c r="J10" s="242"/>
+      <c r="K10" s="242"/>
+      <c r="L10" s="242"/>
     </row>
     <row r="11" spans="1:12" s="32" customFormat="1" ht="41.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
@@ -9067,8 +9385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C549BD63-90B4-C04C-AA15-2960556A9800}">
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9090,26 +9408,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="245" t="s">
+      <c r="A1" s="249" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="245"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="245"/>
-      <c r="E1" s="245"/>
-      <c r="F1" s="245"/>
-      <c r="G1" s="245"/>
+      <c r="B1" s="249"/>
+      <c r="C1" s="249"/>
+      <c r="D1" s="249"/>
+      <c r="E1" s="249"/>
+      <c r="F1" s="249"/>
+      <c r="G1" s="249"/>
     </row>
     <row r="2" spans="1:11" s="209" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="246" t="s">
+      <c r="A2" s="250" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="246"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="246"/>
-      <c r="G2" s="246"/>
+      <c r="B2" s="250"/>
+      <c r="C2" s="250"/>
+      <c r="D2" s="250"/>
+      <c r="E2" s="250"/>
+      <c r="F2" s="250"/>
+      <c r="G2" s="250"/>
     </row>
     <row r="3" spans="1:11" s="210" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="200" t="s">
@@ -9156,19 +9474,19 @@
       <c r="G4" s="206"/>
     </row>
     <row r="7" spans="1:11" s="209" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="248" t="s">
+      <c r="A7" s="252" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="248"/>
-      <c r="C7" s="248"/>
-      <c r="D7" s="248"/>
-      <c r="E7" s="248"/>
-      <c r="F7" s="248"/>
-      <c r="G7" s="248"/>
-      <c r="H7" s="248"/>
-      <c r="I7" s="248"/>
-      <c r="J7" s="248"/>
-      <c r="K7" s="248"/>
+      <c r="B7" s="252"/>
+      <c r="C7" s="252"/>
+      <c r="D7" s="252"/>
+      <c r="E7" s="252"/>
+      <c r="F7" s="252"/>
+      <c r="G7" s="252"/>
+      <c r="H7" s="252"/>
+      <c r="I7" s="252"/>
+      <c r="J7" s="252"/>
+      <c r="K7" s="252"/>
     </row>
     <row r="8" spans="1:11" s="210" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="200" t="s">
@@ -9208,15 +9526,15 @@
       <c r="F9" s="217"/>
     </row>
     <row r="11" spans="1:11" s="209" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="249" t="s">
+      <c r="A11" s="253" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="249"/>
-      <c r="C11" s="249"/>
-      <c r="D11" s="249"/>
-      <c r="E11" s="249"/>
-      <c r="F11" s="249"/>
-      <c r="G11" s="249"/>
+      <c r="B11" s="253"/>
+      <c r="C11" s="253"/>
+      <c r="D11" s="253"/>
+      <c r="E11" s="253"/>
+      <c r="F11" s="253"/>
+      <c r="G11" s="253"/>
     </row>
     <row r="12" spans="1:11" s="210" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="200" t="s">
@@ -9281,15 +9599,15 @@
       <c r="B21" s="217"/>
     </row>
     <row r="22" spans="1:13" s="212" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="247" t="s">
+      <c r="A22" s="251" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="248"/>
-      <c r="C22" s="248"/>
-      <c r="D22" s="248"/>
-      <c r="E22" s="248"/>
-      <c r="F22" s="248"/>
-      <c r="G22" s="248"/>
+      <c r="B22" s="252"/>
+      <c r="C22" s="252"/>
+      <c r="D22" s="252"/>
+      <c r="E22" s="252"/>
+      <c r="F22" s="252"/>
+      <c r="G22" s="252"/>
     </row>
     <row r="23" spans="1:13" s="213" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="200" t="s">
@@ -9414,38 +9732,38 @@
       <c r="G28" s="219"/>
     </row>
     <row r="31" spans="1:13" s="220" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="243" t="s">
+      <c r="A31" s="247" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="244"/>
-      <c r="C31" s="244"/>
-      <c r="D31" s="244"/>
-      <c r="E31" s="244"/>
-      <c r="F31" s="244"/>
-      <c r="G31" s="244"/>
-      <c r="H31" s="244"/>
-      <c r="I31" s="244"/>
-      <c r="J31" s="244"/>
-      <c r="K31" s="244"/>
-      <c r="L31" s="244"/>
-      <c r="M31" s="244"/>
+      <c r="B31" s="248"/>
+      <c r="C31" s="248"/>
+      <c r="D31" s="248"/>
+      <c r="E31" s="248"/>
+      <c r="F31" s="248"/>
+      <c r="G31" s="248"/>
+      <c r="H31" s="248"/>
+      <c r="I31" s="248"/>
+      <c r="J31" s="248"/>
+      <c r="K31" s="248"/>
+      <c r="L31" s="248"/>
+      <c r="M31" s="248"/>
     </row>
     <row r="32" spans="1:13" s="220" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="253" t="s">
+      <c r="A32" s="257" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="253"/>
-      <c r="C32" s="253"/>
-      <c r="D32" s="253"/>
-      <c r="E32" s="253"/>
-      <c r="F32" s="253"/>
-      <c r="G32" s="253"/>
-      <c r="H32" s="253"/>
-      <c r="I32" s="253"/>
-      <c r="J32" s="253"/>
-      <c r="K32" s="253"/>
-      <c r="L32" s="253"/>
-      <c r="M32" s="253"/>
+      <c r="B32" s="257"/>
+      <c r="C32" s="257"/>
+      <c r="D32" s="257"/>
+      <c r="E32" s="257"/>
+      <c r="F32" s="257"/>
+      <c r="G32" s="257"/>
+      <c r="H32" s="257"/>
+      <c r="I32" s="257"/>
+      <c r="J32" s="257"/>
+      <c r="K32" s="257"/>
+      <c r="L32" s="257"/>
+      <c r="M32" s="257"/>
     </row>
     <row r="33" spans="1:15" s="213" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="200" t="s">
@@ -9486,14 +9804,14 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="254" t="s">
+      <c r="A37" s="258" t="s">
         <v>110</v>
       </c>
-      <c r="B37" s="255"/>
-      <c r="C37" s="255"/>
-      <c r="D37" s="255"/>
-      <c r="E37" s="255"/>
-      <c r="F37" s="255"/>
+      <c r="B37" s="259"/>
+      <c r="C37" s="259"/>
+      <c r="D37" s="259"/>
+      <c r="E37" s="259"/>
+      <c r="F37" s="259"/>
       <c r="G37" s="214"/>
       <c r="H37" s="214"/>
       <c r="I37" s="214"/>
@@ -9528,30 +9846,30 @@
       <c r="L38" s="201"/>
     </row>
     <row r="42" spans="1:15" s="220" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="251" t="s">
+      <c r="A42" s="255" t="s">
         <v>115</v>
       </c>
-      <c r="B42" s="252"/>
-      <c r="C42" s="252"/>
-      <c r="D42" s="252"/>
-      <c r="E42" s="252"/>
-      <c r="F42" s="252"/>
-      <c r="G42" s="252"/>
-      <c r="H42" s="252"/>
-      <c r="I42" s="252"/>
-      <c r="J42" s="252"/>
-      <c r="K42" s="252"/>
-      <c r="L42" s="252"/>
+      <c r="B42" s="256"/>
+      <c r="C42" s="256"/>
+      <c r="D42" s="256"/>
+      <c r="E42" s="256"/>
+      <c r="F42" s="256"/>
+      <c r="G42" s="256"/>
+      <c r="H42" s="256"/>
+      <c r="I42" s="256"/>
+      <c r="J42" s="256"/>
+      <c r="K42" s="256"/>
+      <c r="L42" s="256"/>
       <c r="M42" s="221"/>
     </row>
     <row r="43" spans="1:15" s="220" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="204" t="s">
         <v>116</v>
       </c>
-      <c r="B43" s="250" t="s">
+      <c r="B43" s="254" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="250"/>
+      <c r="C43" s="254"/>
       <c r="D43" s="222"/>
       <c r="E43" s="215"/>
       <c r="F43" s="215"/>
@@ -9611,21 +9929,21 @@
       </c>
     </row>
     <row r="47" spans="1:15" s="220" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="243" t="s">
+      <c r="A47" s="247" t="s">
         <v>132</v>
       </c>
-      <c r="B47" s="244"/>
-      <c r="C47" s="244"/>
-      <c r="D47" s="244"/>
-      <c r="E47" s="244"/>
-      <c r="F47" s="244"/>
-      <c r="G47" s="244"/>
-      <c r="H47" s="244"/>
-      <c r="I47" s="244"/>
-      <c r="J47" s="244"/>
-      <c r="K47" s="244"/>
-      <c r="L47" s="244"/>
-      <c r="M47" s="244"/>
+      <c r="B47" s="248"/>
+      <c r="C47" s="248"/>
+      <c r="D47" s="248"/>
+      <c r="E47" s="248"/>
+      <c r="F47" s="248"/>
+      <c r="G47" s="248"/>
+      <c r="H47" s="248"/>
+      <c r="I47" s="248"/>
+      <c r="J47" s="248"/>
+      <c r="K47" s="248"/>
+      <c r="L47" s="248"/>
+      <c r="M47" s="248"/>
     </row>
     <row r="48" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="200" t="s">
@@ -9648,21 +9966,21 @@
       <c r="L48" s="201"/>
     </row>
     <row r="51" spans="1:13" s="220" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="243" t="s">
+      <c r="A51" s="247" t="s">
         <v>133</v>
       </c>
-      <c r="B51" s="244"/>
-      <c r="C51" s="244"/>
-      <c r="D51" s="244"/>
-      <c r="E51" s="244"/>
-      <c r="F51" s="244"/>
-      <c r="G51" s="244"/>
-      <c r="H51" s="244"/>
-      <c r="I51" s="244"/>
-      <c r="J51" s="244"/>
-      <c r="K51" s="244"/>
-      <c r="L51" s="244"/>
-      <c r="M51" s="244"/>
+      <c r="B51" s="248"/>
+      <c r="C51" s="248"/>
+      <c r="D51" s="248"/>
+      <c r="E51" s="248"/>
+      <c r="F51" s="248"/>
+      <c r="G51" s="248"/>
+      <c r="H51" s="248"/>
+      <c r="I51" s="248"/>
+      <c r="J51" s="248"/>
+      <c r="K51" s="248"/>
+      <c r="L51" s="248"/>
+      <c r="M51" s="248"/>
     </row>
     <row r="52" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="200" t="s">
@@ -9688,21 +10006,21 @@
       <c r="L52" s="201"/>
     </row>
     <row r="55" spans="1:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="241" t="s">
+      <c r="A55" s="245" t="s">
         <v>507</v>
       </c>
-      <c r="B55" s="242"/>
-      <c r="C55" s="242"/>
-      <c r="D55" s="242"/>
-      <c r="E55" s="242"/>
-      <c r="F55" s="242"/>
-      <c r="G55" s="242"/>
-      <c r="H55" s="242"/>
-      <c r="I55" s="242"/>
-      <c r="J55" s="242"/>
-      <c r="K55" s="242"/>
-      <c r="L55" s="242"/>
-      <c r="M55" s="242"/>
+      <c r="B55" s="246"/>
+      <c r="C55" s="246"/>
+      <c r="D55" s="246"/>
+      <c r="E55" s="246"/>
+      <c r="F55" s="246"/>
+      <c r="G55" s="246"/>
+      <c r="H55" s="246"/>
+      <c r="I55" s="246"/>
+      <c r="J55" s="246"/>
+      <c r="K55" s="246"/>
+      <c r="L55" s="246"/>
+      <c r="M55" s="246"/>
     </row>
     <row r="56" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="200" t="s">
@@ -9736,8 +10054,8 @@
         <v>513</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F57" s="329">
+    <row r="57" spans="1:13" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="F57" s="333">
         <f>'Orçamento - Dique'!I200</f>
         <v>273582.65000000002</v>
       </c>
@@ -9759,18 +10077,19 @@
     <mergeCell ref="A37:F37"/>
   </mergeCells>
   <conditionalFormatting sqref="C24:C28">
-    <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="Carol e Jessica">
+    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="Carol e Jessica">
       <formula>NOT(ISERROR(SEARCH("Carol e Jessica",C24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="2" operator="containsText" text="Alice">
+    <cfRule type="containsText" dxfId="30" priority="2" operator="containsText" text="Alice">
       <formula>NOT(ISERROR(SEARCH("Alice",C24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="3" operator="containsText" text="Clarissa e Jessica">
+    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="Clarissa e Jessica">
       <formula>NOT(ISERROR(SEARCH("Clarissa e Jessica",C24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9778,8 +10097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F44D4A0-0478-C040-92C3-A04ACD83CCD1}">
   <dimension ref="A1:N208"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="115" workbookViewId="0">
+      <selection activeCell="I209" sqref="I209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9799,64 +10118,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="260" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="257"/>
-      <c r="E1" s="257"/>
-      <c r="F1" s="257"/>
-      <c r="G1" s="257"/>
-      <c r="H1" s="257"/>
-      <c r="I1" s="258"/>
+      <c r="B1" s="261"/>
+      <c r="C1" s="261"/>
+      <c r="D1" s="261"/>
+      <c r="E1" s="261"/>
+      <c r="F1" s="261"/>
+      <c r="G1" s="261"/>
+      <c r="H1" s="261"/>
+      <c r="I1" s="262"/>
       <c r="J1" s="39"/>
       <c r="K1" s="39"/>
     </row>
     <row r="2" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="259"/>
-      <c r="B2" s="260"/>
-      <c r="C2" s="260"/>
-      <c r="D2" s="260"/>
-      <c r="E2" s="260"/>
-      <c r="F2" s="260"/>
-      <c r="G2" s="260"/>
-      <c r="H2" s="260"/>
-      <c r="I2" s="261"/>
+      <c r="A2" s="263"/>
+      <c r="B2" s="264"/>
+      <c r="C2" s="264"/>
+      <c r="D2" s="264"/>
+      <c r="E2" s="264"/>
+      <c r="F2" s="264"/>
+      <c r="G2" s="264"/>
+      <c r="H2" s="264"/>
+      <c r="I2" s="265"/>
       <c r="J2" s="39"/>
       <c r="K2" s="39"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="259"/>
-      <c r="B3" s="260"/>
-      <c r="C3" s="260"/>
-      <c r="D3" s="260"/>
-      <c r="E3" s="260"/>
-      <c r="F3" s="260"/>
-      <c r="G3" s="260"/>
-      <c r="H3" s="260"/>
-      <c r="I3" s="261"/>
+      <c r="A3" s="263"/>
+      <c r="B3" s="264"/>
+      <c r="C3" s="264"/>
+      <c r="D3" s="264"/>
+      <c r="E3" s="264"/>
+      <c r="F3" s="264"/>
+      <c r="G3" s="264"/>
+      <c r="H3" s="264"/>
+      <c r="I3" s="265"/>
       <c r="J3" s="39"/>
       <c r="K3" s="39"/>
     </row>
     <row r="4" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="262"/>
-      <c r="B4" s="263"/>
-      <c r="C4" s="263"/>
-      <c r="D4" s="263"/>
-      <c r="E4" s="263"/>
-      <c r="F4" s="263"/>
-      <c r="G4" s="263"/>
-      <c r="H4" s="263"/>
-      <c r="I4" s="264"/>
+      <c r="A4" s="266"/>
+      <c r="B4" s="267"/>
+      <c r="C4" s="267"/>
+      <c r="D4" s="267"/>
+      <c r="E4" s="267"/>
+      <c r="F4" s="267"/>
+      <c r="G4" s="267"/>
+      <c r="H4" s="267"/>
+      <c r="I4" s="268"/>
       <c r="J4" s="39"/>
       <c r="K4" s="39"/>
     </row>
     <row r="5" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="265" t="s">
+      <c r="A5" s="269" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="266"/>
+      <c r="B5" s="270"/>
       <c r="C5" s="40" t="s">
         <v>141</v>
       </c>
@@ -9917,7 +10236,7 @@
       <c r="M6" s="33">
         <v>2555</v>
       </c>
-      <c r="N6" s="331">
+      <c r="N6" s="241">
         <f>(L6+M6)-H7</f>
         <v>29055</v>
       </c>
@@ -9947,7 +10266,7 @@
       <c r="M7" s="233">
         <v>2555</v>
       </c>
-      <c r="N7" s="331">
+      <c r="N7" s="241">
         <f>(L7+M7)-H8</f>
         <v>32555</v>
       </c>
@@ -9985,7 +10304,7 @@
       <c r="M8" s="233">
         <v>2555</v>
       </c>
-      <c r="N8" s="331">
+      <c r="N8" s="241">
         <f>(L8+M8)-H9</f>
         <v>29555</v>
       </c>
@@ -10045,7 +10364,7 @@
       <c r="I10" s="52"/>
       <c r="J10" s="39"/>
       <c r="K10" s="39"/>
-      <c r="L10" s="327"/>
+      <c r="L10" s="238"/>
     </row>
     <row r="11" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="47">
@@ -15018,12 +15337,12 @@
       <c r="K206" s="39"/>
     </row>
     <row r="207" spans="1:11" s="230" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="267" t="s">
+      <c r="A207" s="271" t="s">
         <v>520</v>
       </c>
-      <c r="B207" s="267"/>
-      <c r="C207" s="267"/>
-      <c r="D207" s="267"/>
+      <c r="B207" s="271"/>
+      <c r="C207" s="271"/>
+      <c r="D207" s="271"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C208" s="33" t="str" cm="1">
@@ -15045,8 +15364,8 @@
       <c r="H208" s="33">
         <v>0</v>
       </c>
-      <c r="I208" s="330">
-        <f>'Preju ou Investimento'!C15</f>
+      <c r="I208" s="240">
+        <f>'Preju ou Investimento'!C16</f>
         <v>300</v>
       </c>
     </row>
@@ -15057,11 +15376,12 @@
     <mergeCell ref="A207:D207"/>
   </mergeCells>
   <conditionalFormatting sqref="J1:J206 K13">
-    <cfRule type="notContainsBlanks" dxfId="38" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="28" priority="1">
       <formula>LEN(TRIM(J1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15070,7 +15390,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15083,14 +15403,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="225" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="272" t="s">
         <v>483</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="268"/>
+      <c r="B1" s="272"/>
+      <c r="C1" s="272"/>
+      <c r="D1" s="272"/>
+      <c r="E1" s="272"/>
+      <c r="F1" s="272"/>
     </row>
     <row r="2" spans="1:6" s="225" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="234" t="s">
@@ -15114,7 +15434,7 @@
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="227">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -15135,7 +15455,7 @@
       <c r="B15" s="235"/>
       <c r="C15" s="228">
         <f>SUM(C3:C14)</f>
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15144,7 +15464,7 @@
       </c>
       <c r="C16">
         <f>IF(E3="Dique",C3,0)</f>
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15201,12 +15521,12 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3">
-    <cfRule type="containsText" dxfId="6" priority="6" stopIfTrue="1" operator="containsText" text="Dique">
+    <cfRule type="containsText" dxfId="27" priority="6" stopIfTrue="1" operator="containsText" text="Dique">
       <formula>NOT(ISERROR(SEARCH("Dique",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="containsText" dxfId="5" priority="5" stopIfTrue="1" operator="containsText" text="A Grande Colheita">
+    <cfRule type="containsText" dxfId="26" priority="5" stopIfTrue="1" operator="containsText" text="A Grande Colheita">
       <formula>NOT(ISERROR(SEARCH("A Grande Colheita",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15232,7 +15552,7 @@
   </sheetPr>
   <dimension ref="B1:J33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="69" zoomScaleNormal="69" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="69" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -15258,16 +15578,16 @@
       <c r="I1" s="151"/>
     </row>
     <row r="2" spans="2:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="281" t="s">
+      <c r="B2" s="285" t="s">
         <v>489</v>
       </c>
-      <c r="C2" s="281"/>
-      <c r="D2" s="281"/>
-      <c r="E2" s="281"/>
-      <c r="F2" s="281"/>
-      <c r="G2" s="281"/>
-      <c r="H2" s="281"/>
-      <c r="I2" s="281"/>
+      <c r="C2" s="285"/>
+      <c r="D2" s="285"/>
+      <c r="E2" s="285"/>
+      <c r="F2" s="285"/>
+      <c r="G2" s="285"/>
+      <c r="H2" s="285"/>
+      <c r="I2" s="285"/>
     </row>
     <row r="3" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="153"/>
@@ -15302,10 +15622,10 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="282" t="s">
+      <c r="B5" s="286" t="s">
         <v>496</v>
       </c>
-      <c r="C5" s="269">
+      <c r="C5" s="273">
         <f ca="1">TODAY()-WEEKDAY(TODAY(),2)+1</f>
         <v>45306</v>
       </c>
@@ -15314,53 +15634,53 @@
       <c r="F5" s="157"/>
       <c r="G5" s="157"/>
       <c r="H5" s="157"/>
-      <c r="I5" s="285"/>
+      <c r="I5" s="289"/>
     </row>
     <row r="6" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="283"/>
-      <c r="C6" s="270"/>
+      <c r="B6" s="287"/>
+      <c r="C6" s="274"/>
       <c r="D6" s="158"/>
       <c r="E6" s="159"/>
       <c r="F6" s="159"/>
       <c r="G6" s="159"/>
       <c r="H6" s="159"/>
-      <c r="I6" s="286"/>
+      <c r="I6" s="290"/>
     </row>
     <row r="7" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="283"/>
-      <c r="C7" s="270"/>
+      <c r="B7" s="287"/>
+      <c r="C7" s="274"/>
       <c r="D7" s="160"/>
       <c r="E7" s="161"/>
       <c r="F7" s="161"/>
       <c r="G7" s="161"/>
       <c r="H7" s="161"/>
-      <c r="I7" s="286"/>
+      <c r="I7" s="290"/>
     </row>
     <row r="8" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="283"/>
-      <c r="C8" s="270"/>
+      <c r="B8" s="287"/>
+      <c r="C8" s="274"/>
       <c r="D8" s="160"/>
       <c r="E8" s="161"/>
       <c r="F8" s="161"/>
       <c r="G8" s="161"/>
       <c r="H8" s="161"/>
-      <c r="I8" s="286"/>
+      <c r="I8" s="290"/>
     </row>
     <row r="9" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="284"/>
-      <c r="C9" s="271"/>
+      <c r="B9" s="288"/>
+      <c r="C9" s="275"/>
       <c r="D9" s="162"/>
       <c r="E9" s="163"/>
       <c r="F9" s="163"/>
       <c r="G9" s="163"/>
       <c r="H9" s="163"/>
-      <c r="I9" s="287"/>
+      <c r="I9" s="291"/>
     </row>
     <row r="10" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="288" t="s">
+      <c r="B10" s="292" t="s">
         <v>497</v>
       </c>
-      <c r="C10" s="311" t="str">
+      <c r="C10" s="315" t="str">
         <f ca="1">(TEXT(WeekStart+1,"mmm dd"))</f>
         <v>jan 16</v>
       </c>
@@ -15369,53 +15689,53 @@
       <c r="F10" s="164"/>
       <c r="G10" s="164"/>
       <c r="H10" s="164"/>
-      <c r="I10" s="291"/>
+      <c r="I10" s="295"/>
     </row>
     <row r="11" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="289"/>
-      <c r="C11" s="312"/>
+      <c r="B11" s="293"/>
+      <c r="C11" s="316"/>
       <c r="D11" s="158"/>
       <c r="E11" s="159"/>
       <c r="F11" s="159"/>
       <c r="G11" s="159"/>
       <c r="H11" s="159"/>
-      <c r="I11" s="292"/>
+      <c r="I11" s="296"/>
     </row>
     <row r="12" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="289"/>
-      <c r="C12" s="312"/>
+      <c r="B12" s="293"/>
+      <c r="C12" s="316"/>
       <c r="D12" s="160"/>
       <c r="E12" s="161"/>
       <c r="F12" s="161"/>
       <c r="G12" s="161"/>
       <c r="H12" s="161"/>
-      <c r="I12" s="292"/>
+      <c r="I12" s="296"/>
     </row>
     <row r="13" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="289"/>
-      <c r="C13" s="312"/>
+      <c r="B13" s="293"/>
+      <c r="C13" s="316"/>
       <c r="D13" s="160"/>
       <c r="E13" s="161"/>
       <c r="F13" s="161"/>
       <c r="G13" s="161"/>
       <c r="H13" s="161"/>
-      <c r="I13" s="292"/>
+      <c r="I13" s="296"/>
     </row>
     <row r="14" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="290"/>
-      <c r="C14" s="313"/>
+      <c r="B14" s="294"/>
+      <c r="C14" s="317"/>
       <c r="D14" s="162"/>
       <c r="E14" s="163"/>
       <c r="F14" s="163"/>
       <c r="G14" s="163"/>
       <c r="H14" s="163"/>
-      <c r="I14" s="293"/>
+      <c r="I14" s="297"/>
     </row>
     <row r="15" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="294" t="s">
+      <c r="B15" s="298" t="s">
         <v>498</v>
       </c>
-      <c r="C15" s="272" t="str">
+      <c r="C15" s="276" t="str">
         <f ca="1">(TEXT(WeekStart+2,"mmm dd"))</f>
         <v>jan 17</v>
       </c>
@@ -15424,53 +15744,53 @@
       <c r="F15" s="166"/>
       <c r="G15" s="166"/>
       <c r="H15" s="166"/>
-      <c r="I15" s="297"/>
+      <c r="I15" s="301"/>
     </row>
     <row r="16" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="295"/>
-      <c r="C16" s="273"/>
+      <c r="B16" s="299"/>
+      <c r="C16" s="277"/>
       <c r="D16" s="158"/>
       <c r="E16" s="167"/>
       <c r="F16" s="167"/>
       <c r="G16" s="167"/>
       <c r="H16" s="167"/>
-      <c r="I16" s="298"/>
+      <c r="I16" s="302"/>
     </row>
     <row r="17" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="295"/>
-      <c r="C17" s="273"/>
+      <c r="B17" s="299"/>
+      <c r="C17" s="277"/>
       <c r="D17" s="160"/>
       <c r="E17" s="168"/>
       <c r="F17" s="168"/>
       <c r="G17" s="168"/>
       <c r="H17" s="168"/>
-      <c r="I17" s="298"/>
+      <c r="I17" s="302"/>
     </row>
     <row r="18" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="295"/>
-      <c r="C18" s="273"/>
+      <c r="B18" s="299"/>
+      <c r="C18" s="277"/>
       <c r="D18" s="160"/>
       <c r="E18" s="168"/>
       <c r="F18" s="168"/>
       <c r="G18" s="168"/>
       <c r="H18" s="168"/>
-      <c r="I18" s="298"/>
+      <c r="I18" s="302"/>
     </row>
     <row r="19" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="296"/>
-      <c r="C19" s="274"/>
+      <c r="B19" s="300"/>
+      <c r="C19" s="278"/>
       <c r="D19" s="162"/>
       <c r="E19" s="169"/>
       <c r="F19" s="169"/>
       <c r="G19" s="169"/>
       <c r="H19" s="169"/>
-      <c r="I19" s="299"/>
+      <c r="I19" s="303"/>
     </row>
     <row r="20" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="300" t="s">
+      <c r="B20" s="304" t="s">
         <v>499</v>
       </c>
-      <c r="C20" s="275" t="str">
+      <c r="C20" s="279" t="str">
         <f ca="1">(TEXT(WeekStart+3,"mmm dd"))</f>
         <v>jan 18</v>
       </c>
@@ -15479,53 +15799,53 @@
       <c r="F20" s="170"/>
       <c r="G20" s="170"/>
       <c r="H20" s="170"/>
-      <c r="I20" s="303"/>
+      <c r="I20" s="307"/>
     </row>
     <row r="21" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="301"/>
-      <c r="C21" s="276"/>
+      <c r="B21" s="305"/>
+      <c r="C21" s="280"/>
       <c r="D21" s="171"/>
       <c r="E21" s="172"/>
       <c r="F21" s="172"/>
       <c r="G21" s="173"/>
       <c r="H21" s="172"/>
-      <c r="I21" s="304"/>
+      <c r="I21" s="308"/>
     </row>
     <row r="22" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="301"/>
-      <c r="C22" s="276"/>
+      <c r="B22" s="305"/>
+      <c r="C22" s="280"/>
       <c r="D22" s="174"/>
       <c r="E22" s="175"/>
       <c r="F22" s="175"/>
       <c r="G22" s="176"/>
       <c r="H22" s="175"/>
-      <c r="I22" s="304"/>
+      <c r="I22" s="308"/>
     </row>
     <row r="23" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="301"/>
-      <c r="C23" s="276"/>
+      <c r="B23" s="305"/>
+      <c r="C23" s="280"/>
       <c r="D23" s="177"/>
       <c r="E23" s="178"/>
       <c r="F23" s="179"/>
       <c r="G23" s="176"/>
       <c r="H23" s="175"/>
-      <c r="I23" s="304"/>
+      <c r="I23" s="308"/>
     </row>
     <row r="24" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="302"/>
-      <c r="C24" s="277"/>
+      <c r="B24" s="306"/>
+      <c r="C24" s="281"/>
       <c r="D24" s="180"/>
       <c r="E24" s="178"/>
       <c r="F24" s="178"/>
       <c r="G24" s="181"/>
       <c r="H24" s="179"/>
-      <c r="I24" s="305"/>
+      <c r="I24" s="309"/>
     </row>
     <row r="25" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="306" t="s">
+      <c r="B25" s="310" t="s">
         <v>500</v>
       </c>
-      <c r="C25" s="278" t="str">
+      <c r="C25" s="282" t="str">
         <f ca="1">(TEXT(WeekStart+4,"mmm dd"))</f>
         <v>jan 19</v>
       </c>
@@ -15534,47 +15854,47 @@
       <c r="F25" s="182"/>
       <c r="G25" s="182"/>
       <c r="H25" s="182"/>
-      <c r="I25" s="308"/>
+      <c r="I25" s="312"/>
     </row>
     <row r="26" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="307"/>
-      <c r="C26" s="279"/>
+      <c r="B26" s="311"/>
+      <c r="C26" s="283"/>
       <c r="D26" s="183"/>
       <c r="E26" s="184"/>
       <c r="F26" s="185"/>
       <c r="G26" s="185"/>
       <c r="H26" s="186"/>
-      <c r="I26" s="309"/>
+      <c r="I26" s="313"/>
     </row>
     <row r="27" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="307"/>
-      <c r="C27" s="279"/>
+      <c r="B27" s="311"/>
+      <c r="C27" s="283"/>
       <c r="D27" s="187"/>
       <c r="E27" s="188"/>
       <c r="F27" s="189"/>
       <c r="G27" s="189"/>
       <c r="H27" s="190"/>
-      <c r="I27" s="309"/>
+      <c r="I27" s="313"/>
     </row>
     <row r="28" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="307"/>
-      <c r="C28" s="279"/>
+      <c r="B28" s="311"/>
+      <c r="C28" s="283"/>
       <c r="D28" s="187"/>
       <c r="E28" s="188"/>
       <c r="F28" s="189"/>
       <c r="G28" s="189"/>
       <c r="H28" s="190"/>
-      <c r="I28" s="309"/>
+      <c r="I28" s="313"/>
     </row>
     <row r="29" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="307"/>
-      <c r="C29" s="280"/>
+      <c r="B29" s="311"/>
+      <c r="C29" s="284"/>
       <c r="D29" s="191"/>
       <c r="E29" s="192"/>
       <c r="F29" s="193"/>
       <c r="G29" s="193"/>
       <c r="H29" s="158"/>
-      <c r="I29" s="310"/>
+      <c r="I29" s="314"/>
     </row>
     <row r="30" spans="2:9" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="194"/>
@@ -15652,12 +15972,12 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="314" t="str">
+      <c r="B2" s="318" t="str">
         <f>"January "&amp;CalendarYear</f>
         <v>January 2024</v>
       </c>
-      <c r="C2" s="314"/>
-      <c r="D2" s="314"/>
+      <c r="C2" s="318"/>
+      <c r="D2" s="318"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -15693,10 +16013,10 @@
         <f t="shared" si="0"/>
         <v>domingo</v>
       </c>
-      <c r="K3" s="317" t="s">
+      <c r="K3" s="321" t="s">
         <v>503</v>
       </c>
-      <c r="L3" s="317"/>
+      <c r="L3" s="321"/>
     </row>
     <row r="4" spans="1:12" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8">
@@ -15860,29 +16180,29 @@
       <c r="C14" s="7">
         <v>45328</v>
       </c>
-      <c r="D14" s="315" t="s">
+      <c r="D14" s="319" t="s">
         <v>495</v>
       </c>
-      <c r="E14" s="315"/>
-      <c r="F14" s="315"/>
-      <c r="G14" s="315"/>
-      <c r="H14" s="315"/>
+      <c r="E14" s="319"/>
+      <c r="F14" s="319"/>
+      <c r="G14" s="319"/>
+      <c r="H14" s="319"/>
     </row>
     <row r="15" spans="1:12" s="5" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="316"/>
-      <c r="E15" s="316"/>
-      <c r="F15" s="316"/>
-      <c r="G15" s="316"/>
-      <c r="H15" s="316"/>
+      <c r="D15" s="320"/>
+      <c r="E15" s="320"/>
+      <c r="F15" s="320"/>
+      <c r="G15" s="320"/>
+      <c r="H15" s="320"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="328">
+      <c r="B18" s="239">
         <f ca="1">TODAY()</f>
         <v>45310</v>
       </c>
-      <c r="C18" s="328">
+      <c r="C18" s="239">
         <f ca="1">TODAY()+1</f>
         <v>45311</v>
       </c>
@@ -15896,12 +16216,12 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B4:G4">
-    <cfRule type="expression" dxfId="37" priority="23">
+    <cfRule type="expression" dxfId="23" priority="23">
       <formula>DAY(B4)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:H12 B14:C14">
-    <cfRule type="expression" dxfId="36" priority="24">
+    <cfRule type="expression" dxfId="22" priority="24">
       <formula>AND(DAY(B12)&gt;=1,DAY(B12)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15959,12 +16279,12 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="314" t="str">
+      <c r="B2" s="318" t="str">
         <f>"February "&amp;CalendarYear</f>
         <v>February 2024</v>
       </c>
-      <c r="C2" s="314"/>
-      <c r="D2" s="314"/>
+      <c r="C2" s="318"/>
+      <c r="D2" s="318"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -16150,22 +16470,22 @@
       <c r="C14" s="7">
         <v>45356</v>
       </c>
-      <c r="D14" s="315" t="s">
+      <c r="D14" s="319" t="s">
         <v>495</v>
       </c>
-      <c r="E14" s="315"/>
-      <c r="F14" s="315"/>
-      <c r="G14" s="315"/>
-      <c r="H14" s="315"/>
+      <c r="E14" s="319"/>
+      <c r="F14" s="319"/>
+      <c r="G14" s="319"/>
+      <c r="H14" s="319"/>
     </row>
     <row r="15" spans="1:9" s="5" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="316"/>
-      <c r="E15" s="316"/>
-      <c r="F15" s="316"/>
-      <c r="G15" s="316"/>
-      <c r="H15" s="316"/>
+      <c r="D15" s="320"/>
+      <c r="E15" s="320"/>
+      <c r="F15" s="320"/>
+      <c r="G15" s="320"/>
+      <c r="H15" s="320"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -16174,12 +16494,12 @@
     <mergeCell ref="D15:H15"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:G4">
-    <cfRule type="expression" dxfId="35" priority="1">
+    <cfRule type="expression" dxfId="21" priority="1">
       <formula>DAY(B4)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:H12 B14:C14">
-    <cfRule type="expression" dxfId="34" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>AND(DAY(B12)&gt;=1,DAY(B12)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16226,12 +16546,12 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="318" t="str">
+      <c r="B2" s="322" t="str">
         <f>"March "&amp;CalendarYear</f>
         <v>March 2024</v>
       </c>
-      <c r="C2" s="318"/>
-      <c r="D2" s="318"/>
+      <c r="C2" s="322"/>
+      <c r="D2" s="322"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -16417,22 +16737,22 @@
       <c r="C14" s="15">
         <v>45384</v>
       </c>
-      <c r="D14" s="319" t="s">
+      <c r="D14" s="323" t="s">
         <v>495</v>
       </c>
-      <c r="E14" s="319"/>
-      <c r="F14" s="319"/>
-      <c r="G14" s="319"/>
-      <c r="H14" s="319"/>
+      <c r="E14" s="323"/>
+      <c r="F14" s="323"/>
+      <c r="G14" s="323"/>
+      <c r="H14" s="323"/>
     </row>
     <row r="15" spans="1:9" s="5" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
-      <c r="D15" s="320"/>
-      <c r="E15" s="320"/>
-      <c r="F15" s="320"/>
-      <c r="G15" s="320"/>
-      <c r="H15" s="320"/>
+      <c r="D15" s="324"/>
+      <c r="E15" s="324"/>
+      <c r="F15" s="324"/>
+      <c r="G15" s="324"/>
+      <c r="H15" s="324"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -16441,12 +16761,12 @@
     <mergeCell ref="D15:H15"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:G4">
-    <cfRule type="expression" dxfId="33" priority="1">
+    <cfRule type="expression" dxfId="19" priority="1">
       <formula>DAY(B4)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:H12 B14:C14">
-    <cfRule type="expression" dxfId="32" priority="2">
+    <cfRule type="expression" dxfId="18" priority="2">
       <formula>AND(DAY(B12)&gt;=1,DAY(B12)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16469,35 +16789,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -16809,29 +17100,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E41711A-14E7-411C-A3D2-992C0184A0D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C89767E-1328-40C6-9203-B1A04AEC6BD2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C81313E7-A55B-4652-8201-2BC6B09FAB67}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16853,6 +17151,28 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C89767E-1328-40C6-9203-B1A04AEC6BD2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E41711A-14E7-411C-A3D2-992C0184A0D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>